--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/feasibility_test_questions.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/feasibility_test_questions.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2015\1567009.01 - CCH NPDES Effluent Limit Planning\16-1.B&amp;C Str BMP Prioritization\Feasibility Tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="04395482790ED1A435CEBC82A607AFAA8D30805F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{4183DA0A-79A4-4F42-AD79-EC0A15BB7134}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="24" windowWidth="16104" windowHeight="12408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,9 +226,6 @@
     <t>val|0</t>
   </si>
   <si>
-    <t>exp|BMP_Size</t>
-  </si>
-  <si>
     <t>val|0.08</t>
   </si>
   <si>
@@ -246,9 +244,6 @@
     <t>val|'*Piped Outlet'</t>
   </si>
   <si>
-    <t>exp|Det_Size</t>
-  </si>
-  <si>
     <t>val|'Closed Sanitary Landfill'</t>
   </si>
   <si>
@@ -262,6 +257,12 @@
   </si>
   <si>
     <t>var|FP_100_Year</t>
+  </si>
+  <si>
+    <t>dxp|BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</t>
+  </si>
+  <si>
+    <t>dxp|Det_Size(base_bmps~bmp_size_expression_id~bmp_name)</t>
   </si>
 </sst>
 </file>
@@ -682,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +729,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="str">
         <f>_xlfn.CONCAT(RIGHT(C2,LEN(C2)-4),D2,RIGHT(E2,LEN(E2)-4))</f>
@@ -749,7 +750,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F22" si="0">_xlfn.CONCAT(RIGHT(C3,LEN(C3)-4),D3,RIGHT(E3,LEN(E3)-4))</f>
@@ -770,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -791,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -812,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -833,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -875,7 +876,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -896,7 +897,7 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -917,7 +918,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -938,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -959,7 +960,7 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -980,11 +981,11 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Pave_Area&gt;BMP_Size</v>
+        <v>Pave_Area&gt;BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1001,11 +1002,11 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>Unpave_Area&gt;BMP_Size</v>
+        <v>Unpave_Area&gt;BMP_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,11 +1023,11 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Pave_Area&gt;Det_Size</v>
+        <v>Pave_Area&gt;Det_Size(base_bmps~bmp_size_expression_id~bmp_name)</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -1100,13 +1101,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -1127,7 +1128,7 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -1148,7 +1149,7 @@
         <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/feasibility_test_questions.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/feasibility_test_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="04395482790ED1A435CEBC82A607AFAA8D30805F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{4183DA0A-79A4-4F42-AD79-EC0A15BB7134}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="04395482790ED1A435CEBC82A607AFAA8D30805F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{A1BAECC6-791F-49A3-9E3C-11197FBC372B}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="24" windowWidth="16104" windowHeight="12408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Feasibility Question Maker" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -683,7 +684,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/feasibility_test_questions.xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/feasibility_test_questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="04395482790ED1A435CEBC82A607AFAA8D30805F" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{A1BAECC6-791F-49A3-9E3C-11197FBC372B}"/>
@@ -16,7 +16,6 @@
     <sheet name="Feasibility Question Maker" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
